--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>民生加银精选混合</t>
   </si>
   <si>
+    <t>0.97</t>
+  </si>
+  <si>
     <t>94.14</t>
   </si>
   <si>
     <t>6.10</t>
+  </si>
+  <si>
+    <t>0.0592</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>690003</t>
-  </si>
-  <si>
-    <t>民生加银精选混合</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>94.14</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>0.0592</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.53</v>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.06</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.06</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,2013 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.99</v>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.26</v>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3941,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.06</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3979,2711 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8234</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5093</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>19.36</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>8.99</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.53</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.06</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -583,6 +600,2450 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6428</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6424</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4850</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3372,7 +5833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5442,7 +7903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5802,7 +8263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6504,7 +8965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6598,7 +9059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601001-晋控煤业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>22.68</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>19.36</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>8.99</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.53</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>2.06</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3043,7 +3762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5833,7 +6552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7903,7 +8622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8263,7 +8982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8965,7 +9684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9059,7 +9778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
